--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H2">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>123.392882661973</v>
+        <v>237.361671223569</v>
       </c>
       <c r="R2">
-        <v>1110.535943957757</v>
+        <v>2136.255041012121</v>
       </c>
       <c r="S2">
-        <v>0.001116171450700295</v>
+        <v>0.002131473007337512</v>
       </c>
       <c r="T2">
-        <v>0.001116171450700295</v>
+        <v>0.002131473007337512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H3">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>880.6904840331108</v>
+        <v>933.3500240754669</v>
       </c>
       <c r="R3">
-        <v>7926.214356297998</v>
+        <v>8400.150216679203</v>
       </c>
       <c r="S3">
-        <v>0.007966436588356987</v>
+        <v>0.00838134637517304</v>
       </c>
       <c r="T3">
-        <v>0.007966436588356988</v>
+        <v>0.00838134637517304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H4">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>861.2309544015538</v>
+        <v>863.90063758803</v>
       </c>
       <c r="R4">
-        <v>7751.078589613984</v>
+        <v>7775.105738292271</v>
       </c>
       <c r="S4">
-        <v>0.007790412080701214</v>
+        <v>0.007757701066682205</v>
       </c>
       <c r="T4">
-        <v>0.007790412080701215</v>
+        <v>0.007757701066682207</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H5">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>251.2156771883959</v>
+        <v>224.388094000155</v>
       </c>
       <c r="R5">
-        <v>2260.941094695564</v>
+        <v>2019.492846001395</v>
       </c>
       <c r="S5">
-        <v>0.002272414427776733</v>
+        <v>0.00201497218596324</v>
       </c>
       <c r="T5">
-        <v>0.002272414427776733</v>
+        <v>0.00201497218596324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H6">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>373.8652443693489</v>
+        <v>432.362313295321</v>
       </c>
       <c r="R6">
-        <v>3364.78719932414</v>
+        <v>3891.260819657889</v>
       </c>
       <c r="S6">
-        <v>0.003381862091003394</v>
+        <v>0.003882550183559179</v>
       </c>
       <c r="T6">
-        <v>0.003381862091003394</v>
+        <v>0.003882550183559179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H7">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>984.1155826626949</v>
+        <v>1171.508766014192</v>
       </c>
       <c r="R7">
-        <v>8857.040243964255</v>
+        <v>10543.57889412773</v>
       </c>
       <c r="S7">
-        <v>0.008901986029182069</v>
+        <v>0.01051997696067191</v>
       </c>
       <c r="T7">
-        <v>0.008901986029182071</v>
+        <v>0.01051997696067191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J8">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>3538.606370866379</v>
+        <v>6422.904974265889</v>
       </c>
       <c r="R8">
-        <v>31847.45733779741</v>
+        <v>57806.14476839299</v>
       </c>
       <c r="S8">
-        <v>0.03200906990111546</v>
+        <v>0.05767674498907133</v>
       </c>
       <c r="T8">
-        <v>0.03200906990111545</v>
+        <v>0.05767674498907133</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J9">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>25256.05116219052</v>
@@ -1013,10 +1013,10 @@
         <v>227304.4604597147</v>
       </c>
       <c r="S9">
-        <v>0.2284579357943035</v>
+        <v>0.2267956365770606</v>
       </c>
       <c r="T9">
-        <v>0.2284579357943036</v>
+        <v>0.2267956365770606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J10">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>24697.99940067258</v>
+        <v>23376.78056373856</v>
       </c>
       <c r="R10">
-        <v>222281.9946060532</v>
+        <v>210391.0250736471</v>
       </c>
       <c r="S10">
-        <v>0.2234099830211628</v>
+        <v>0.2099200621280144</v>
       </c>
       <c r="T10">
-        <v>0.2234099830211628</v>
+        <v>0.2099200621280144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J11">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>7204.251789753558</v>
+        <v>6071.845541406561</v>
       </c>
       <c r="R11">
-        <v>64838.26610778202</v>
+        <v>54646.60987265905</v>
       </c>
       <c r="S11">
-        <v>0.06516729326607701</v>
+        <v>0.05452428275178754</v>
       </c>
       <c r="T11">
-        <v>0.06516729326607701</v>
+        <v>0.05452428275178753</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J12">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>10721.54168887572</v>
+        <v>11699.53867629273</v>
       </c>
       <c r="R12">
-        <v>96493.87519988151</v>
+        <v>105295.8480866345</v>
       </c>
       <c r="S12">
-        <v>0.0969835413716621</v>
+        <v>0.1050601420114328</v>
       </c>
       <c r="T12">
-        <v>0.0969835413716621</v>
+        <v>0.1050601420114328</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J13">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>28222.03027721542</v>
+        <v>31700.52452799505</v>
       </c>
       <c r="R13">
-        <v>253998.2724949387</v>
+        <v>285304.7207519555</v>
       </c>
       <c r="S13">
-        <v>0.2552872077923744</v>
+        <v>0.2846660625599475</v>
       </c>
       <c r="T13">
-        <v>0.2552872077923744</v>
+        <v>0.2846660625599475</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H14">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>2.119877161821111</v>
+        <v>0.581314575759</v>
       </c>
       <c r="R14">
-        <v>19.07889445639</v>
+        <v>5.231831181831001</v>
       </c>
       <c r="S14">
-        <v>1.917571188849037E-05</v>
+        <v>5.220119662180458E-06</v>
       </c>
       <c r="T14">
-        <v>1.917571188849037E-05</v>
+        <v>5.220119662180457E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H15">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>15.13017285485889</v>
+        <v>2.285836506303667</v>
       </c>
       <c r="R15">
-        <v>136.17155569373</v>
+        <v>20.572528556733</v>
       </c>
       <c r="S15">
-        <v>0.0001368625695455816</v>
+        <v>2.052647669380396E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001368625695455816</v>
+        <v>2.052647669380396E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H16">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>14.79586011691334</v>
+        <v>2.11575032333</v>
       </c>
       <c r="R16">
-        <v>133.16274105222</v>
+        <v>19.04175290997</v>
       </c>
       <c r="S16">
-        <v>0.0001338384864246572</v>
+        <v>1.899912770750545E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001338384864246572</v>
+        <v>1.899912770750545E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H17">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>4.315859758475556</v>
+        <v>0.5495414192050001</v>
       </c>
       <c r="R17">
-        <v>38.84273782628</v>
+        <v>4.945872772845</v>
       </c>
       <c r="S17">
-        <v>3.903984852054399E-05</v>
+        <v>4.934801374675768E-06</v>
       </c>
       <c r="T17">
-        <v>3.903984852054399E-05</v>
+        <v>4.934801374675767E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H18">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>6.422966836007779</v>
+        <v>1.058884163697667</v>
       </c>
       <c r="R18">
-        <v>57.80670152407001</v>
+        <v>9.529957473279</v>
       </c>
       <c r="S18">
-        <v>5.810004642476883E-05</v>
+        <v>9.508624544073497E-06</v>
       </c>
       <c r="T18">
-        <v>5.810004642476883E-05</v>
+        <v>9.508624544073495E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H19">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>16.90700551987223</v>
+        <v>2.869103161445334</v>
       </c>
       <c r="R19">
-        <v>152.16304967885</v>
+        <v>25.821928453008</v>
       </c>
       <c r="S19">
-        <v>0.0001529352136930774</v>
+        <v>2.576412574264102E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001529352136930775</v>
+        <v>2.576412574264102E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H20">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>256.7937564441074</v>
+        <v>177.735269023042</v>
       </c>
       <c r="R20">
-        <v>2311.143807996966</v>
+        <v>1599.617421207378</v>
       </c>
       <c r="S20">
-        <v>0.002322871898910012</v>
+        <v>0.001596036657568276</v>
       </c>
       <c r="T20">
-        <v>0.002322871898910012</v>
+        <v>0.001596036657568276</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H21">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>1832.810878395485</v>
+        <v>698.8879744845837</v>
       </c>
       <c r="R21">
-        <v>16495.29790555936</v>
+        <v>6289.991770361254</v>
       </c>
       <c r="S21">
-        <v>0.01657900466270912</v>
+        <v>0.00627591154497551</v>
       </c>
       <c r="T21">
-        <v>0.01657900466270913</v>
+        <v>0.00627591154497551</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H22">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>1792.313520647452</v>
+        <v>646.8846104738733</v>
       </c>
       <c r="R22">
-        <v>16130.82168582707</v>
+        <v>5821.96149426486</v>
       </c>
       <c r="S22">
-        <v>0.01621267887817438</v>
+        <v>0.005808928960516145</v>
       </c>
       <c r="T22">
-        <v>0.01621267887817438</v>
+        <v>0.005808928960516146</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H23">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>522.8066322073147</v>
+        <v>168.0207172754567</v>
       </c>
       <c r="R23">
-        <v>4705.259689865832</v>
+        <v>1512.18645547911</v>
       </c>
       <c r="S23">
-        <v>0.004729136920361525</v>
+        <v>0.00150880140715222</v>
       </c>
       <c r="T23">
-        <v>0.004729136920361525</v>
+        <v>0.00150880140715222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H24">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>778.0534698139954</v>
+        <v>323.7508047227558</v>
       </c>
       <c r="R24">
-        <v>7002.481228325959</v>
+        <v>2913.757242504802</v>
       </c>
       <c r="S24">
-        <v>0.007038015900023381</v>
+        <v>0.002907234760410767</v>
       </c>
       <c r="T24">
-        <v>0.007038015900023381</v>
+        <v>0.002907234760410766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H25">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>2048.049545446077</v>
+        <v>877.2200861960782</v>
       </c>
       <c r="R25">
-        <v>18432.44590901469</v>
+        <v>7894.980775764704</v>
       </c>
       <c r="S25">
-        <v>0.01852598288435249</v>
+        <v>0.007877307762381335</v>
       </c>
       <c r="T25">
-        <v>0.01852598288435249</v>
+        <v>0.007877307762381333</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H26">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>1.291788581654667</v>
+        <v>3.258360505302</v>
       </c>
       <c r="R26">
-        <v>11.626097234892</v>
+        <v>29.325244547718</v>
       </c>
       <c r="S26">
-        <v>1.168509482944363E-05</v>
+        <v>2.92595996203797E-05</v>
       </c>
       <c r="T26">
-        <v>1.168509482944363E-05</v>
+        <v>2.92595996203797E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H27">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>9.219866549049334</v>
+        <v>12.81247659065267</v>
       </c>
       <c r="R27">
-        <v>82.978798941444</v>
+        <v>115.312289315874</v>
       </c>
       <c r="S27">
-        <v>8.339988173796803E-05</v>
+        <v>0.0001150541613114839</v>
       </c>
       <c r="T27">
-        <v>8.339988173796805E-05</v>
+        <v>0.0001150541613114839</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H28">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>9.016146548024</v>
+        <v>11.85911652674</v>
       </c>
       <c r="R28">
-        <v>81.145318932216</v>
+        <v>106.73204874066</v>
       </c>
       <c r="S28">
-        <v>8.155709758238571E-05</v>
+        <v>0.0001064931277123</v>
       </c>
       <c r="T28">
-        <v>8.155709758238573E-05</v>
+        <v>0.0001064931277123</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H29">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>2.629953497509333</v>
+        <v>3.080266917490001</v>
       </c>
       <c r="R29">
-        <v>23.669581477584</v>
+        <v>27.72240225741</v>
       </c>
       <c r="S29">
-        <v>2.378969473167156E-05</v>
+        <v>2.766034531262069E-05</v>
       </c>
       <c r="T29">
-        <v>2.378969473167156E-05</v>
+        <v>2.766034531262068E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H30">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>3.913960378710667</v>
+        <v>5.935213879984667</v>
       </c>
       <c r="R30">
-        <v>35.225643408396</v>
+        <v>53.416924919862</v>
       </c>
       <c r="S30">
-        <v>3.540439885707673E-05</v>
+        <v>5.329735046416414E-05</v>
       </c>
       <c r="T30">
-        <v>3.540439885707673E-05</v>
+        <v>5.329735046416413E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H31">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>10.30261426175333</v>
+        <v>16.08177881086933</v>
       </c>
       <c r="R31">
-        <v>92.72352835578</v>
+        <v>144.736009297824</v>
       </c>
       <c r="S31">
-        <v>9.31940615898315E-05</v>
+        <v>0.0001444120159276023</v>
       </c>
       <c r="T31">
-        <v>9.319406158983153E-05</v>
+        <v>0.0001444120159276022</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H32">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>3.843652097257</v>
+        <v>0.914864455112</v>
       </c>
       <c r="R32">
-        <v>34.59286887531299</v>
+        <v>8.233780096007999</v>
       </c>
       <c r="S32">
-        <v>3.476841325715064E-05</v>
+        <v>8.215348676101423E-06</v>
       </c>
       <c r="T32">
-        <v>3.476841325715064E-05</v>
+        <v>8.215348676101423E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H33">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>27.433250224499</v>
+        <v>3.597416368038222</v>
       </c>
       <c r="R33">
-        <v>246.899252020491</v>
+        <v>32.376747312344</v>
       </c>
       <c r="S33">
-        <v>0.000248152162749819</v>
+        <v>3.230427155783456E-05</v>
       </c>
       <c r="T33">
-        <v>0.000248152162749819</v>
+        <v>3.230427155783456E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H34">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>26.827091584986</v>
+        <v>3.329737198106666</v>
       </c>
       <c r="R34">
-        <v>241.443824264874</v>
+        <v>29.96763478296</v>
       </c>
       <c r="S34">
-        <v>0.0002426690509736464</v>
+        <v>2.990055185703155E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002426690509736464</v>
+        <v>2.990055185703155E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H35">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>7.825294649563999</v>
+        <v>0.8648603217733334</v>
       </c>
       <c r="R35">
-        <v>70.427651846076</v>
+        <v>7.783742895960001</v>
       </c>
       <c r="S35">
-        <v>7.078504280581855E-05</v>
+        <v>7.766318889964282E-06</v>
       </c>
       <c r="T35">
-        <v>7.078504280581855E-05</v>
+        <v>7.76631888996428E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H36">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>11.645792687641</v>
+        <v>1.666456551830222</v>
       </c>
       <c r="R36">
-        <v>104.812134188769</v>
+        <v>14.998108966472</v>
       </c>
       <c r="S36">
-        <v>0.0001053440120556083</v>
+        <v>1.496453551163809E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001053440120556083</v>
+        <v>1.496453551163809E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H37">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>30.654911706755</v>
+        <v>4.515352977393778</v>
       </c>
       <c r="R37">
-        <v>275.894205360795</v>
+        <v>40.638176796544</v>
       </c>
       <c r="S37">
-        <v>0.0002772942533853522</v>
+        <v>4.05472077286261E-05</v>
       </c>
       <c r="T37">
-        <v>0.0002772942533853523</v>
+        <v>4.054720772862609E-05</v>
       </c>
     </row>
   </sheetData>
